--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1246,8 +1246,8 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>Driver,
+Optima, Equip</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1493,15 +1493,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1579,7 +1574,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1660,10 +1655,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1718,10 +1718,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5:00 @ Hwy N, Driver 1/2</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1759,15 +1763,10 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1781,14 +1780,10 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>5:00 @ Hwy N, Driver 1/2</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
@@ -1834,7 +1829,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -1851,10 +1846,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>@ Store, Driver 1/2</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
@@ -1887,31 +1886,23 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>@ Store, Driver 1/2</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
@@ -1944,12 +1935,12 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
     </row>
@@ -1990,21 +1981,9 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>@ Store, Driver</t>
-        </is>
-      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2012,7 +1991,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2055,7 +2038,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2100,7 +2083,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #207, LAKE GENEVA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2141,7 +2124,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #207, LAKE GENEVA</t>
+          <t>1001 E GENEVA SQUARE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2195,7 +2178,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1001 E GENEVA SQUARE</t>
+          <t>https://goo.gl/maps/Tbkoc8cC9Nr</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2245,7 +2228,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Tbkoc8cC9Nr</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2300,11 +2283,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2356,9 +2335,22 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2408,20 +2400,15 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2479,12 +2466,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2496,10 +2483,15 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2532,12 +2524,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2549,15 +2541,10 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2590,15 +2577,20 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2627,12 +2619,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2669,20 +2661,15 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
@@ -2715,15 +2702,19 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
@@ -2756,12 +2747,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2801,12 +2792,12 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2846,12 +2837,12 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2889,21 +2880,9 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
@@ -3058,10 +3037,16 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3095,14 +3080,13 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-Supv Rx</t>
+          <t>@ Store,
+2nd Day</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3138,13 +3122,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Day</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3180,7 +3163,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3221,7 +3204,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3262,7 +3245,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3303,7 +3286,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3344,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3385,7 +3368,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3426,7 +3409,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3467,7 +3450,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3508,7 +3491,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3549,7 +3532,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3590,7 +3573,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3631,7 +3614,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3656,47 +3639,6 @@
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -1377,7 +1377,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1455,15 +1455,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1537,10 +1532,15 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -1618,14 +1618,10 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1680,13 +1676,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1742,13 +1737,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Corolla</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1808,7 +1803,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1871,9 +1866,22 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -1970,11 +1978,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -2017,7 +2021,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2062,7 +2066,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2103,7 +2107,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2605 BROADWAY</t>
+          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2157,7 +2161,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
+          <t>2605 BROADWAY</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2209,7 +2213,11 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2253,21 +2261,9 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -2312,15 +2308,19 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -2375,12 +2375,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2441,12 +2441,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2499,12 +2499,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2552,12 +2552,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2600,8 +2600,16 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1651,15 +1651,10 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1713,12 +1708,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5:00 @ Hwy N, Driver 1/2</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1775,10 +1771,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5:00 @ Hwy N, Driver 1/2</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
@@ -1841,14 +1841,10 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>@ Store, Driver 1/2</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
@@ -1908,9 +1904,21 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>@ Store, Driver 1/2</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
@@ -1995,11 +2003,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2042,7 +2046,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2087,7 +2091,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #207, LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2128,7 +2132,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1001 E GENEVA SQUARE</t>
+          <t>PIGGLY WIGGLY #207, LAKE GENEVA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2154,7 +2158,7 @@
       <c r="O32" t="inlineStr">
         <is>
           <t>@ Store,
-Camry 3, Equip</t>
+Corolla, Equip</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -2182,7 +2186,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Tbkoc8cC9Nr</t>
+          <t>1001 E GENEVA SQUARE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2236,7 +2240,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>https://goo.gl/maps/Tbkoc8cC9Nr</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2279,7 +2283,11 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:00 am at IL Office</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2335,22 +2343,9 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2400,15 +2395,20 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2466,12 +2466,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2524,12 +2524,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2577,20 +2577,15 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2627,12 +2622,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2669,15 +2664,20 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
@@ -2710,19 +2710,15 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
@@ -2755,12 +2751,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2800,12 +2796,12 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2845,12 +2841,12 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2888,9 +2884,21 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
@@ -3008,7 +3016,7 @@
       <c r="K50" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
+Corolla,
 Rx</t>
         </is>
       </c>
@@ -3051,7 +3059,7 @@
       <c r="K51" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
+Corolla,
 Supv Rx</t>
         </is>
       </c>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2929,9 +2929,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -1691,7 +1691,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -1890,14 +1890,10 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1951,12 +1947,12 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>@ Store, Driver</t>
+          <t>@ Store</t>
         </is>
       </c>
     </row>
@@ -1993,9 +1989,21 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>@ Store, Driver</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3634,47 +3634,6 @@
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -2274,7 +2274,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>*6:15 am meet at the office due to small parking lot</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2322,21 +2326,9 @@
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -2378,15 +2370,20 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -2449,12 +2446,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2507,12 +2504,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2560,12 +2557,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2605,12 +2602,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2653,8 +2650,16 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -2113,7 +2113,11 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Nate to help out Taylor after the store at the office</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2153,22 +2157,9 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Corolla, Equip</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -2209,18 +2200,18 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store,
+Corolla, Equip</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2263,15 +2254,20 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2312,19 +2308,15 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -2353,18 +2345,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2434,15 +2425,20 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2454,7 +2450,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -2498,8 +2499,16 @@
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -2565,7 +2574,11 @@
           <t>Laci</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2660,7 +2673,11 @@
           <t>Tina E</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,7 +2340,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Nate/Justin to help get Camry 3 back after the store</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2406,22 +2410,9 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
@@ -2484,18 +2475,18 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima, Equip</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2550,15 +2541,20 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2605,8 +2601,16 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2710,11 +2714,7 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>METRO #893 +RX, SHOREWOOD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4075 N OAKLAND AVE</t>
+          <t>METRO #893 +RX, SHOREWOOD</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boWQLVTF2mS2</t>
+          <t>4075 N OAKLAND AVE</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>https://goo.gl/maps/boWQLVTF2mS2</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2976,7 +2976,11 @@
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3004,21 +3008,9 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3047,19 +3039,17 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Corolla,
-Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3090,19 +3080,19 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>Driver, 1/2
 Corolla,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3133,18 +3123,19 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Day</t>
+          <t>Driver, 1/2
+Corolla,
+Supv Rx</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3175,17 +3166,18 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Day</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3216,12 +3208,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3257,12 +3249,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3298,12 +3290,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3339,12 +3331,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3380,12 +3372,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3421,12 +3413,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3462,12 +3454,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3503,12 +3495,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3544,12 +3536,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3585,12 +3577,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3626,12 +3618,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3656,6 +3648,47 @@
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -1365,7 +1365,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>5:30 am meet for Sarah, Aivy, &amp; Lori at Wayside Park</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1660,9 +1660,21 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2354,12 +2366,13 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2421,15 +2434,10 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2490,16 +2498,8 @@
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -1801,11 +1801,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
@@ -1869,7 +1865,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1939,7 +1935,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>KELLEY #53, MIDDLETON MOBIL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1988,7 +1984,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>8613 UNIVERSITY GREEN</t>
+          <t>SENDIK'S, MEQUON</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2037,7 +2033,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/btWWBCtemW22</t>
+          <t>10930 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2082,7 +2078,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>https://goo.gl/maps/9khShk1hnMC2</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2127,7 +2123,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Nate to help out Taylor after the store at the office</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2217,13 +2213,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>@ Store,
-Corolla, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2271,15 +2266,10 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2325,10 +2315,14 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Driver, Optima</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -2366,13 +2360,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2434,10 +2427,14 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2498,9 +2495,21 @@
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2556,9 +2565,21 @@
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2613,9 +2634,21 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2663,9 +2696,21 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2717,9 +2762,21 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2758,9 +2815,21 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2803,9 +2872,21 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -2848,9 +2929,21 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2893,9 +2986,21 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -2938,9 +3043,21 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2983,9 +3100,21 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -2427,7 +2427,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -2050,8 +2050,16 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2166,7 +2174,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Nate - let Jake know your ETA on the way back to meet w/ Taylor</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2206,21 +2218,9 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2261,15 +2261,19 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2310,19 +2314,15 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Driver, Optima</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -2355,17 +2355,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, Optima</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2422,12 +2422,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2446,12 +2446,7 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -2497,12 +2492,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2567,12 +2562,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2636,12 +2631,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2660,7 +2655,12 @@
           <t>Taylor</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2698,12 +2698,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2764,12 +2764,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2817,12 +2817,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2874,12 +2874,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2931,12 +2931,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2988,12 +2988,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3045,12 +3045,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3102,12 +3102,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3141,9 +3141,21 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -1365,7 +1365,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5:30 am meet for Sarah, Aivy, &amp; Lori at Wayside Park</t>
+          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>

--- a/01-05-25 to 01-11-25 Madison Schedule.xlsx
+++ b/01-05-25 to 01-11-25 Madison Schedule.xlsx
@@ -1241,13 +1241,13 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Driver,
-Optima, Equip</t>
+          <t>@ Store, Driver, 
+Equip</t>
         </is>
       </c>
     </row>
@@ -2004,12 +2004,13 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>@ Store, Driver</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
     </row>
@@ -2050,16 +2051,8 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
